--- a/SIMS_TEMPLATE.xlsx
+++ b/SIMS_TEMPLATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="7665"/>
+    <workbookView windowWidth="19800" windowHeight="7665" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory Report" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Cresdel Pharmacy Latest Inventory</t>
   </si>
@@ -105,19 +105,13 @@
     <t>no_reply@example.com</t>
   </si>
   <si>
+    <t>Batch #</t>
+  </si>
+  <si>
     <t>Item Name</t>
   </si>
   <si>
-    <t>Subtotal</t>
-  </si>
-  <si>
-    <t>Shipping &amp; handling</t>
-  </si>
-  <si>
-    <t>Tax rate</t>
-  </si>
-  <si>
-    <t>Sales tax</t>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -126,12 +120,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="41">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -219,13 +213,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color rgb="FF666666"/>
       <name val="Roboto"/>
@@ -270,36 +257,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -320,10 +287,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,86 +340,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -427,6 +357,50 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -434,7 +408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,14 +441,182 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCEDDE1"/>
-        <bgColor rgb="FFCEDDE1"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -483,188 +625,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -679,15 +641,6 @@
       <bottom style="thin">
         <color rgb="FFB7B7B7"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFB7B7B7"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -706,13 +659,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,6 +685,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,8 +727,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,31 +737,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,152 +759,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1019,10 +972,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1030,56 +980,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1134,91 +1077,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <scheme val="none"/>
-        <charset val="134"/>
-        <family val="0"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -1324,12 +1183,12 @@
   </dxfs>
   <tableStyles count="2">
     <tableStyle name="Sales Report-style" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
     <tableStyle name="Purchase order Report-style" pivot="0" count="2">
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1350,20 +1209,6 @@
     <tableColumn id="5" name="Column5" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Sales Report-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" displayName="Table_2" ref="B28:G33" headerRowCount="0">
-  <tableColumns count="6">
-    <tableColumn id="1" name="Column1" dataDxfId="5"/>
-    <tableColumn id="2" name="Column2" dataDxfId="6"/>
-    <tableColumn id="3" name="Column3" dataDxfId="7"/>
-    <tableColumn id="4" name="Column4" dataDxfId="8"/>
-    <tableColumn id="5" name="Column5" dataDxfId="9"/>
-    <tableColumn id="6" name="Column6" dataDxfId="10"/>
-  </tableColumns>
-  <tableStyleInfo name="Purchase order Report-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1628,13 +1473,13 @@
     <tabColor rgb="FF76A5AF"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="2.62857142857143" customWidth="1"/>
     <col min="2" max="2" width="12.247619047619" customWidth="1"/>
@@ -1643,50 +1488,43 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="51"/>
-      <c r="B1" s="52" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:5">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:5">
-      <c r="A3" s="53"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:5">
-      <c r="A4" s="53"/>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="53" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" ht="21" customHeight="1" spans="1:5">
-      <c r="A5" s="53"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1705,7 +1543,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -1787,7 +1625,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:2">
+    <row r="9" ht="45" customHeight="1" spans="1:2">
       <c r="A9" s="11"/>
       <c r="B9" s="15" t="s">
         <v>12</v>
@@ -1803,105 +1641,105 @@
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:6">
       <c r="A11" s="11"/>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A12" s="50"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A13" s="50"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="28"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" ht="19.5" hidden="1" customHeight="1" spans="1:6">
       <c r="A14" s="11"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34">
         <f t="shared" ref="F14:F18" si="0">PRODUCT(D14,E14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="19.5" hidden="1" customHeight="1" spans="1:6">
       <c r="A15" s="11"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="19.5" hidden="1" customHeight="1" spans="1:6">
       <c r="A16" s="11"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="19.5" hidden="1" customHeight="1" spans="1:6">
       <c r="A17" s="11"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="19.5" hidden="1" customHeight="1" spans="1:6">
       <c r="A18" s="11"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:5">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" ht="19.5" customHeight="1" spans="1:6">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="34"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
@@ -1929,10 +1767,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
@@ -2023,7 +1861,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:7">
+    <row r="9" ht="65" customHeight="1" spans="1:7">
       <c r="A9" s="11"/>
       <c r="B9" s="15" t="s">
         <v>18</v>
@@ -2173,164 +2011,93 @@
     <row r="27" ht="30" customHeight="1" spans="1:7">
       <c r="A27" s="11"/>
       <c r="B27" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="C27" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="E27" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="32"/>
+      <c r="F27" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" ht="19.5" customHeight="1" spans="1:7">
       <c r="A28" s="11"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-    </row>
-    <row r="29" ht="19.5" hidden="1" customHeight="1" spans="1:7">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+    </row>
+    <row r="29" ht="19.5" customHeight="1" spans="1:7">
       <c r="A29" s="11"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35">
-        <f t="shared" ref="F29:F33" si="0">PRODUCT(D29,E29)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" ht="19.5" hidden="1" customHeight="1" spans="1:7">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+    </row>
+    <row r="30" ht="19.5" customHeight="1" spans="1:7">
       <c r="A30" s="11"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="35"/>
-    </row>
-    <row r="31" ht="19.5" hidden="1" customHeight="1" spans="1:7">
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+    </row>
+    <row r="31" ht="19.5" customHeight="1" spans="1:7">
       <c r="A31" s="11"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="35"/>
-    </row>
-    <row r="32" ht="19.5" hidden="1" customHeight="1" spans="1:7">
-      <c r="A32" s="11"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:7">
+      <c r="A32" s="12"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="36"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="35"/>
-    </row>
-    <row r="33" ht="19.5" hidden="1" customHeight="1" spans="1:7">
-      <c r="A33" s="11"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+    </row>
+    <row r="33" ht="18" customHeight="1" spans="1:7">
+      <c r="A33" s="12"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="36"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="35"/>
-    </row>
-    <row r="34" ht="19.5" customHeight="1" spans="1:7">
-      <c r="A34" s="12"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40">
-        <f>SUM(F28:F33)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="41"/>
-    </row>
-    <row r="35" ht="18" customHeight="1" spans="1:7">
-      <c r="A35" s="12"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="44">
-        <v>20</v>
-      </c>
-      <c r="G35" s="44"/>
-    </row>
-    <row r="36" ht="18" customHeight="1" spans="1:7">
-      <c r="A36" s="12"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="45">
-        <v>0.086</v>
-      </c>
-      <c r="G36" s="45"/>
-    </row>
-    <row r="37" ht="18" customHeight="1" spans="1:7">
-      <c r="A37" s="12"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="44">
-        <f>F34*F36</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="44"/>
-    </row>
-    <row r="38" ht="30" customHeight="1" spans="1:7">
-      <c r="A38" s="46"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49">
-        <f>SUM(F34,F35,F37)</f>
-        <v>20</v>
-      </c>
-      <c r="G38" s="49"/>
-    </row>
-    <row r="39" ht="19.5" customHeight="1" spans="1:7">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" ht="30" customHeight="1" spans="1:7">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
+      <c r="G34" s="42"/>
+    </row>
+    <row r="35" ht="19.5" customHeight="1" spans="1:7">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="40">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -2368,16 +2135,11 @@
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/SIMS_TEMPLATE.xlsx
+++ b/SIMS_TEMPLATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="7665" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory Report" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Cresdel Pharmacy Latest Inventory</t>
   </si>
@@ -60,6 +60,9 @@
     <t>Sales Report</t>
   </si>
   <si>
+    <t>Invoice #</t>
+  </si>
+  <si>
     <t>Item #</t>
   </si>
   <si>
@@ -72,43 +75,28 @@
     <t>Unit price</t>
   </si>
   <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Date Purchased</t>
+  </si>
+  <si>
     <t>Total price</t>
   </si>
   <si>
     <t>Purchase Order Report</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Batch Number</t>
-  </si>
-  <si>
-    <t>Arrival Date</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Company name</t>
-  </si>
-  <si>
-    <t>Street address</t>
-  </si>
-  <si>
-    <t>City, State, Zip</t>
-  </si>
-  <si>
-    <t>no_reply@example.com</t>
-  </si>
-  <si>
     <t>Batch #</t>
   </si>
   <si>
     <t>Item Name</t>
+  </si>
+  <si>
+    <t>Date Ordered</t>
+  </si>
+  <si>
+    <t>Expected Arrival Date</t>
   </si>
   <si>
     <t>Status</t>
@@ -119,13 +107,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -163,32 +151,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FF666666"/>
-      <name val="Roboto"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF434343"/>
-      <name val="Roboto"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF434343"/>
-      <name val="Roboto"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF999999"/>
+      <color rgb="FF2A3990"/>
       <name val="Roboto"/>
       <charset val="134"/>
     </font>
@@ -200,13 +165,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF2A3990"/>
-      <name val="Roboto"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF2A3990"/>
       <name val="Roboto"/>
@@ -231,6 +189,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF666666"/>
       <name val="Roboto"/>
@@ -255,6 +218,119 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -265,70 +341,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,74 +370,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -441,187 +404,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,17 +622,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,37 +685,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,169 +709,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -939,90 +902,67 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1200,12 +1140,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" displayName="Table_1" ref="B12:F18" headerRowCount="0">
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" displayName="Table_1" ref="B12:I17" headerRowCount="0">
+  <tableColumns count="8">
     <tableColumn id="1" name="Column1" dataDxfId="0"/>
+    <tableColumn id="6" name="Column6"/>
     <tableColumn id="2" name="Column2" dataDxfId="1"/>
     <tableColumn id="3" name="Column3" dataDxfId="2"/>
     <tableColumn id="4" name="Column4" dataDxfId="3"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
     <tableColumn id="5" name="Column5" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Sales Report-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -1475,8 +1418,8 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1488,41 +1431,41 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:5">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:5">
-      <c r="A3" s="49"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" ht="42" customHeight="1" spans="1:5">
-      <c r="A4" s="49"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="40"/>
+      <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="44" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1540,90 +1483,113 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.13333333333333" customWidth="1"/>
     <col min="2" max="2" width="11.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="17.247619047619" customWidth="1"/>
-    <col min="4" max="4" width="6.13333333333333" customWidth="1"/>
-    <col min="5" max="6" width="13.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="11.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="17.247619047619" customWidth="1"/>
+    <col min="5" max="5" width="6.13333333333333" customWidth="1"/>
+    <col min="6" max="7" width="13.1333333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="13.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="6" customHeight="1" spans="1:6">
+    <row r="1" ht="6" customHeight="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="3"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:6">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:9">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="7"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:6">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:9">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="10"/>
-    </row>
-    <row r="4" ht="12.75" spans="1:6">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" ht="12.75" spans="1:9">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="13"/>
-    </row>
-    <row r="5" ht="12.75" spans="1:6">
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="11"/>
       <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="13"/>
-    </row>
-    <row r="6" ht="12.75" spans="1:6">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="11"/>
       <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="13"/>
-    </row>
-    <row r="7" ht="12.75" spans="1:6">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:6">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:9">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:2">
       <c r="A9" s="11"/>
@@ -1631,128 +1597,154 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="12.75" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10" s="11"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:6">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:9">
       <c r="A11" s="11"/>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A12" s="46"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A13" s="46"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-    </row>
-    <row r="14" ht="19.5" hidden="1" customHeight="1" spans="1:6">
+      <c r="G11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="1" spans="1:9">
+      <c r="A12" s="36"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" ht="19.5" hidden="1" customHeight="1" spans="1:9">
+      <c r="A13" s="11"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20">
+        <f t="shared" ref="I13:I17" si="0">PRODUCT(E13,F13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="19.5" hidden="1" customHeight="1" spans="1:9">
       <c r="A14" s="11"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34">
-        <f t="shared" ref="F14:F18" si="0">PRODUCT(D14,E14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="19.5" hidden="1" customHeight="1" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="19.5" hidden="1" customHeight="1" spans="1:6">
-      <c r="A16" s="11"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34">
+    <row r="15" ht="19.5" hidden="1" customHeight="1" spans="1:9">
+      <c r="A15" s="11"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="19.5" hidden="1" customHeight="1" spans="1:6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34">
+    <row r="16" ht="19.5" hidden="1" customHeight="1" spans="1:9">
+      <c r="A16" s="11"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="19.5" hidden="1" customHeight="1" spans="1:6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34">
+    <row r="17" ht="19.5" hidden="1" customHeight="1" spans="1:9">
+      <c r="A17" s="11"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="30" customHeight="1" spans="1:5">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+    <row r="18" ht="30" customHeight="1" spans="1:6">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" ht="19.5" customHeight="1" spans="1:9">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="F18:I18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1767,23 +1759,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.13333333333333" customWidth="1"/>
     <col min="2" max="2" width="11.1333333333333" customWidth="1"/>
     <col min="3" max="3" width="22.5047619047619" customWidth="1"/>
-    <col min="4" max="4" width="6.13333333333333" customWidth="1"/>
-    <col min="5" max="6" width="13.1333333333333" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="4" max="4" width="12.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="13.1333333333333" customWidth="1"/>
+    <col min="6" max="6" width="21.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="25.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="21.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="14.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="6" customHeight="1" spans="1:7">
+    <row r="1" ht="6" customHeight="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1791,8 +1787,11 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:7">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:10">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1800,38 +1799,53 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:7">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-    </row>
-    <row r="4" ht="12.75" spans="1:7">
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" ht="12.75" spans="1:10">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
-    </row>
-    <row r="5" ht="12.75" spans="1:7">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="11"/>
       <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="14"/>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-    </row>
-    <row r="6" ht="12.75" spans="1:7">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="11"/>
       <c r="B6" s="14" t="s">
         <v>10</v>
@@ -1841,18 +1855,25 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-    </row>
-    <row r="7" ht="12.75" spans="1:7">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:7">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:10">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1860,285 +1881,171 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-    </row>
-    <row r="9" ht="65" customHeight="1" spans="1:7">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" ht="65" customHeight="1" spans="1:10">
       <c r="A9" s="11"/>
       <c r="B9" s="15" t="s">
-        <v>18</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-    </row>
-    <row r="10" ht="12.75" spans="1:7">
-      <c r="A10" s="11"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="12"/>
       <c r="B10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="1:7">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:7">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:10">
       <c r="A12" s="11"/>
-      <c r="B12" s="21">
-        <v>36776</v>
-      </c>
-      <c r="D12" s="22">
-        <v>12345678</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="18"/>
+      <c r="B12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" ht="19.5" customHeight="1" spans="1:10">
+      <c r="A13" s="11"/>
       <c r="B13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" ht="18" customHeight="1" spans="1:7">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" ht="19.5" customHeight="1" spans="1:10">
+      <c r="A14" s="11"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="19"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" ht="18" customHeight="1" spans="1:7">
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" ht="19.5" customHeight="1" spans="1:10">
       <c r="A15" s="11"/>
-      <c r="B15" s="21">
-        <v>36783</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" ht="12.75" spans="1:7">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" ht="19.5" customHeight="1" spans="1:10">
       <c r="A16" s="11"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" ht="12.75" spans="1:7">
-      <c r="A17" s="11"/>
-      <c r="B17" s="26"/>
-      <c r="D17" s="17"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:7">
-      <c r="A18" s="11"/>
-      <c r="B18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:7">
-      <c r="A19" s="11"/>
-      <c r="B19" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="28"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:10">
+      <c r="A17" s="12"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:10">
+      <c r="A18" s="12"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" ht="30" customHeight="1" spans="1:10">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="28"/>
-    </row>
-    <row r="20" ht="12.75" spans="1:7">
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" ht="19.5" customHeight="1" spans="1:10">
       <c r="A20" s="11"/>
-      <c r="B20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-    </row>
-    <row r="21" ht="12.75" spans="1:7">
-      <c r="A21" s="11"/>
-      <c r="B21" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" ht="12.75" spans="1:7">
-      <c r="A22" s="11"/>
-      <c r="B22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" ht="12.75" spans="1:7">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" ht="12.75" spans="1:7">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" ht="12.75" spans="1:7">
-      <c r="A25" s="12"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" ht="12.75" spans="1:7">
-      <c r="A26" s="11"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" ht="30" customHeight="1" spans="1:7">
-      <c r="A27" s="11"/>
-      <c r="B27" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="31"/>
-    </row>
-    <row r="28" ht="19.5" customHeight="1" spans="1:7">
-      <c r="A28" s="11"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-    </row>
-    <row r="29" ht="19.5" customHeight="1" spans="1:7">
-      <c r="A29" s="11"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-    </row>
-    <row r="30" ht="19.5" customHeight="1" spans="1:7">
-      <c r="A30" s="11"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-    </row>
-    <row r="31" ht="19.5" customHeight="1" spans="1:7">
-      <c r="A31" s="11"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-    </row>
-    <row r="32" ht="18" customHeight="1" spans="1:7">
-      <c r="A32" s="12"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-    </row>
-    <row r="33" ht="18" customHeight="1" spans="1:7">
-      <c r="A33" s="12"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-    </row>
-    <row r="34" ht="30" customHeight="1" spans="1:7">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
-      <c r="G34" s="42"/>
-    </row>
-    <row r="35" ht="19.5" customHeight="1" spans="1:7">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="E34:F34"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
